--- a/ExcelAccessment.xlsx
+++ b/ExcelAccessment.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="345" windowWidth="15600" windowHeight="11640" activeTab="30"/>
+    <workbookView xWindow="2100" yWindow="345" windowWidth="15600" windowHeight="11640" firstSheet="19" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="1基本操作" sheetId="2" r:id="rId1"/>
@@ -39,6 +39,8 @@
     <sheet name="16" sheetId="36" r:id="rId30"/>
     <sheet name="17排序" sheetId="37" r:id="rId31"/>
     <sheet name="17" sheetId="38" r:id="rId32"/>
+    <sheet name="18宏" sheetId="39" r:id="rId33"/>
+    <sheet name="18" sheetId="40" r:id="rId34"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'3'!$A$4:$A$47</definedName>
@@ -53,10 +55,12 @@
     <definedName name="DATA1" localSheetId="23">#REF!</definedName>
     <definedName name="DATA1" localSheetId="25">#REF!</definedName>
     <definedName name="DATA1" localSheetId="27">#REF!</definedName>
+    <definedName name="DATA1" localSheetId="33">#REF!</definedName>
     <definedName name="DATA1">#REF!</definedName>
     <definedName name="DATA10" localSheetId="23">#REF!</definedName>
     <definedName name="DATA10" localSheetId="25">#REF!</definedName>
     <definedName name="DATA10" localSheetId="27">#REF!</definedName>
+    <definedName name="DATA10" localSheetId="33">#REF!</definedName>
     <definedName name="DATA10" localSheetId="11">#REF!</definedName>
     <definedName name="DATA10" localSheetId="12">#REF!</definedName>
     <definedName name="DATA10" localSheetId="15">#REF!</definedName>
@@ -64,6 +68,7 @@
     <definedName name="DATA11" localSheetId="23">#REF!</definedName>
     <definedName name="DATA11" localSheetId="25">#REF!</definedName>
     <definedName name="DATA11" localSheetId="27">#REF!</definedName>
+    <definedName name="DATA11" localSheetId="33">#REF!</definedName>
     <definedName name="DATA11" localSheetId="11">#REF!</definedName>
     <definedName name="DATA11" localSheetId="12">#REF!</definedName>
     <definedName name="DATA11" localSheetId="15">#REF!</definedName>
@@ -71,10 +76,12 @@
     <definedName name="DATA12" localSheetId="23">#REF!</definedName>
     <definedName name="DATA12" localSheetId="25">#REF!</definedName>
     <definedName name="DATA12" localSheetId="27">#REF!</definedName>
+    <definedName name="DATA12" localSheetId="33">#REF!</definedName>
     <definedName name="DATA12">#REF!</definedName>
     <definedName name="DATA2" localSheetId="23">#REF!</definedName>
     <definedName name="DATA2" localSheetId="25">#REF!</definedName>
     <definedName name="DATA2" localSheetId="27">#REF!</definedName>
+    <definedName name="DATA2" localSheetId="33">#REF!</definedName>
     <definedName name="DATA2" localSheetId="11">#REF!</definedName>
     <definedName name="DATA2" localSheetId="12">#REF!</definedName>
     <definedName name="DATA2" localSheetId="15">#REF!</definedName>
@@ -82,6 +89,7 @@
     <definedName name="DATA3" localSheetId="23">#REF!</definedName>
     <definedName name="DATA3" localSheetId="25">#REF!</definedName>
     <definedName name="DATA3" localSheetId="27">#REF!</definedName>
+    <definedName name="DATA3" localSheetId="33">#REF!</definedName>
     <definedName name="DATA3" localSheetId="11">#REF!</definedName>
     <definedName name="DATA3" localSheetId="12">#REF!</definedName>
     <definedName name="DATA3" localSheetId="15">#REF!</definedName>
@@ -89,14 +97,17 @@
     <definedName name="DATA4" localSheetId="23">#REF!</definedName>
     <definedName name="DATA4" localSheetId="25">#REF!</definedName>
     <definedName name="DATA4" localSheetId="27">#REF!</definedName>
+    <definedName name="DATA4" localSheetId="33">#REF!</definedName>
     <definedName name="DATA4">#REF!</definedName>
     <definedName name="DATA5" localSheetId="23">#REF!</definedName>
     <definedName name="DATA5" localSheetId="25">#REF!</definedName>
     <definedName name="DATA5" localSheetId="27">#REF!</definedName>
+    <definedName name="DATA5" localSheetId="33">#REF!</definedName>
     <definedName name="DATA5">#REF!</definedName>
     <definedName name="DATA6" localSheetId="23">#REF!</definedName>
     <definedName name="DATA6" localSheetId="25">#REF!</definedName>
     <definedName name="DATA6" localSheetId="27">#REF!</definedName>
+    <definedName name="DATA6" localSheetId="33">#REF!</definedName>
     <definedName name="DATA6" localSheetId="11">#REF!</definedName>
     <definedName name="DATA6" localSheetId="12">#REF!</definedName>
     <definedName name="DATA6" localSheetId="15">#REF!</definedName>
@@ -104,6 +115,7 @@
     <definedName name="DATA7" localSheetId="23">#REF!</definedName>
     <definedName name="DATA7" localSheetId="25">#REF!</definedName>
     <definedName name="DATA7" localSheetId="27">#REF!</definedName>
+    <definedName name="DATA7" localSheetId="33">#REF!</definedName>
     <definedName name="DATA7" localSheetId="11">#REF!</definedName>
     <definedName name="DATA7" localSheetId="12">#REF!</definedName>
     <definedName name="DATA7" localSheetId="15">#REF!</definedName>
@@ -111,6 +123,7 @@
     <definedName name="DATA8" localSheetId="23">#REF!</definedName>
     <definedName name="DATA8" localSheetId="25">#REF!</definedName>
     <definedName name="DATA8" localSheetId="27">#REF!</definedName>
+    <definedName name="DATA8" localSheetId="33">#REF!</definedName>
     <definedName name="DATA8" localSheetId="11">#REF!</definedName>
     <definedName name="DATA8" localSheetId="12">#REF!</definedName>
     <definedName name="DATA8" localSheetId="15">#REF!</definedName>
@@ -118,6 +131,7 @@
     <definedName name="DATA9" localSheetId="23">#REF!</definedName>
     <definedName name="DATA9" localSheetId="25">#REF!</definedName>
     <definedName name="DATA9" localSheetId="27">#REF!</definedName>
+    <definedName name="DATA9" localSheetId="33">#REF!</definedName>
     <definedName name="DATA9" localSheetId="11">#REF!</definedName>
     <definedName name="DATA9" localSheetId="12">#REF!</definedName>
     <definedName name="DATA9" localSheetId="15">#REF!</definedName>
@@ -127,28 +141,32 @@
     <definedName name="TEST0" localSheetId="23">#REF!</definedName>
     <definedName name="TEST0" localSheetId="25">#REF!</definedName>
     <definedName name="TEST0" localSheetId="27">#REF!</definedName>
+    <definedName name="TEST0" localSheetId="33">#REF!</definedName>
     <definedName name="TEST0">#REF!</definedName>
     <definedName name="TESTHKEY" localSheetId="23">#REF!</definedName>
     <definedName name="TESTHKEY" localSheetId="25">#REF!</definedName>
     <definedName name="TESTHKEY" localSheetId="27">#REF!</definedName>
+    <definedName name="TESTHKEY" localSheetId="33">#REF!</definedName>
     <definedName name="TESTHKEY">#REF!</definedName>
     <definedName name="TESTKEYS" localSheetId="23">#REF!</definedName>
     <definedName name="TESTKEYS" localSheetId="25">#REF!</definedName>
     <definedName name="TESTKEYS" localSheetId="27">#REF!</definedName>
+    <definedName name="TESTKEYS" localSheetId="33">#REF!</definedName>
     <definedName name="TESTKEYS">#REF!</definedName>
     <definedName name="TESTVKEY" localSheetId="23">#REF!</definedName>
     <definedName name="TESTVKEY" localSheetId="25">#REF!</definedName>
     <definedName name="TESTVKEY" localSheetId="27">#REF!</definedName>
+    <definedName name="TESTVKEY" localSheetId="33">#REF!</definedName>
     <definedName name="TESTVKEY">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>作者</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="A4" authorId="0">
@@ -213,7 +231,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2821" uniqueCount="793">
   <si>
     <t>Organization Search code</t>
   </si>
@@ -3017,25 +3035,147 @@
     <t>歌名</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Character_e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请编写一个宏，指定快捷键为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Ctrl+Q  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对指定区域内容添加前缀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Character_</t>
+    </r>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>请编写一个宏，指定快捷键为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Ctrl+Q  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对指定区域内容添加前缀</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Character_</t>
+    </r>
+    <phoneticPr fontId="51" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
+    <numFmt numFmtId="7" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0_ "/>
-    <numFmt numFmtId="178" formatCode="&quot;¥&quot;#,##0.00;&quot;¥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="179" formatCode="[$¥-804]#,##0.00"/>
-    <numFmt numFmtId="180" formatCode="00000"/>
-    <numFmt numFmtId="181" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="182" formatCode="#,##0.000"/>
-    <numFmt numFmtId="183" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="184" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="185" formatCode="m/d"/>
-    <numFmt numFmtId="186" formatCode="[Red][&lt;40]0;[Blue][&lt;60]0;0"/>
+    <numFmt numFmtId="178" formatCode="[$¥-804]#,##0.00"/>
+    <numFmt numFmtId="179" formatCode="00000"/>
+    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="181" formatCode="#,##0.000"/>
+    <numFmt numFmtId="182" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="183" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="184" formatCode="m/d"/>
+    <numFmt numFmtId="185" formatCode="[Red][&lt;40]0;[Blue][&lt;60]0;0"/>
   </numFmts>
-  <fonts count="51">
+  <fonts count="54">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3397,6 +3537,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="17">
     <fill>
@@ -3688,7 +3848,7 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
@@ -3698,7 +3858,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="175">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3844,19 +4004,19 @@
     <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="5" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="27" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="26" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="26" fillId="5" borderId="3" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="3" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="3" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="26" fillId="0" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="5" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="26" fillId="5" borderId="6" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="26" fillId="5" borderId="6" xfId="5" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="6" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="7" borderId="6" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="26" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="29" fillId="5" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="7" fontId="29" fillId="5" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="7" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="5" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="5" applyFont="1"/>
@@ -3866,20 +4026,20 @@
     <xf numFmtId="0" fontId="31" fillId="6" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="7" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="5" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="27" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="27" fillId="3" borderId="5" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="179" fontId="4" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="3" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="4" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="180" fontId="4" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="4" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1">
@@ -3888,7 +4048,7 @@
     <xf numFmtId="177" fontId="33" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="4" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="181" fontId="4" fillId="8" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="33" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1">
@@ -3900,7 +4060,7 @@
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="4" fillId="9" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
@@ -3985,7 +4145,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="183" fontId="28" fillId="11" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="28" fillId="11" borderId="6" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1">
@@ -4008,35 +4168,17 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="8"/>
-    <xf numFmtId="184" fontId="45" fillId="11" borderId="6" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="45" fillId="11" borderId="6" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="45" fillId="0" borderId="6" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="45" fillId="0" borderId="6" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="46" fillId="8" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="183" fontId="46" fillId="8" borderId="6" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="46" fillId="8" borderId="6" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="184" fontId="46" fillId="8" borderId="6" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -4050,7 +4192,7 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="28" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="28" fillId="0" borderId="6" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4119,12 +4261,31 @@
     <xf numFmtId="0" fontId="50" fillId="16" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="11">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal_Monthly Spare Parts GR Forecast" xfId="7"/>
     <cellStyle name="Normal_Sheet1" xfId="4"/>
-    <cellStyle name="千位分隔 2" xfId="6"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="常规 2 2" xfId="8"/>
     <cellStyle name="常规 3" xfId="3"/>
@@ -4132,6 +4293,7 @@
     <cellStyle name="常规 5" xfId="5"/>
     <cellStyle name="常规_Sheet1" xfId="10"/>
     <cellStyle name="常规_Sheet1_1" xfId="9"/>
+    <cellStyle name="千位分隔 2" xfId="6"/>
   </cellStyles>
   <dxfs count="5">
     <dxf>
@@ -4175,6 +4337,72 @@
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
     <mruColors>
       <color rgb="FF0000FF"/>
     </mruColors>
@@ -4297,7 +4525,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -4349,7 +4577,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -4395,7 +4623,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -4441,7 +4669,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -4670,7 +4898,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -4798,7 +5026,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -4949,7 +5177,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -5001,7 +5229,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -5052,7 +5280,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -5098,7 +5326,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
         <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
@@ -5173,14 +5401,14 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -6568,7 +6796,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+  <sheetPr codeName="Sheet10">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:J28"/>
@@ -6590,15 +6818,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="158.25" customHeight="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="169" t="s">
         <v>372</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
     </row>
     <row r="2" spans="1:10" ht="13.5" thickBot="1"/>
     <row r="3" spans="1:10" s="77" customFormat="1">
@@ -6858,6 +7086,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:O154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9783,7 +10012,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+  <sheetPr codeName="Sheet12">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:O154"/>
@@ -13239,6 +13468,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13334,7 +13564,7 @@
       <c r="E5" s="111"/>
       <c r="F5" s="110"/>
       <c r="G5" s="110"/>
-      <c r="H5" s="144" t="s">
+      <c r="H5" s="171" t="s">
         <v>569</v>
       </c>
     </row>
@@ -13348,7 +13578,7 @@
       <c r="E6" s="111"/>
       <c r="F6" s="110"/>
       <c r="G6" s="110"/>
-      <c r="H6" s="144"/>
+      <c r="H6" s="171"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="85">
@@ -13575,7 +13805,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+  <sheetPr codeName="Sheet14">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H30"/>
@@ -13712,7 +13942,7 @@
       </c>
       <c r="F5" s="110"/>
       <c r="G5" s="110"/>
-      <c r="H5" s="144" t="s">
+      <c r="H5" s="171" t="s">
         <v>569</v>
       </c>
     </row>
@@ -13738,7 +13968,7 @@
       </c>
       <c r="F6" s="110"/>
       <c r="G6" s="110"/>
-      <c r="H6" s="144"/>
+      <c r="H6" s="171"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="85">
@@ -14157,6 +14387,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet15"/>
   <dimension ref="A1:K121"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -17635,7 +17866,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+  <sheetPr codeName="Sheet16">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:K132"/>
@@ -21221,6 +21452,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet17"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21252,6 +21484,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet18"/>
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
@@ -21276,13 +21509,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="172" t="s">
         <v>619</v>
       </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
     </row>
     <row r="2" spans="1:5" ht="7.5" customHeight="1"/>
     <row r="3" spans="1:5">
@@ -21855,6 +22088,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet19"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23296,6 +23530,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet20"/>
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23791,6 +24026,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet21"/>
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23872,6 +24108,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet22"/>
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23886,19 +24123,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="45" customHeight="1">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="173" t="s">
         <v>677</v>
       </c>
-      <c r="B1" s="147"/>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="147"/>
-      <c r="I1" s="147"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
     </row>
     <row r="3" spans="1:11" ht="14.25">
       <c r="A3" s="141" t="s">
@@ -24018,6 +24255,7 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet23"/>
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24027,216 +24265,216 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="142" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="143" t="s">
         <v>678</v>
       </c>
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="143" t="s">
         <v>679</v>
       </c>
-      <c r="C2" s="149" t="s">
+      <c r="C2" s="143" t="s">
         <v>680</v>
       </c>
-      <c r="D2" s="149" t="s">
+      <c r="D2" s="143" t="s">
         <v>681</v>
       </c>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="143" t="s">
         <v>682</v>
       </c>
-      <c r="F2" s="149" t="s">
+      <c r="F2" s="143" t="s">
         <v>683</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="143" t="s">
         <v>684</v>
       </c>
-      <c r="H2" s="149" t="s">
+      <c r="H2" s="143" t="s">
         <v>685</v>
       </c>
-      <c r="I2" s="149" t="s">
+      <c r="I2" s="143" t="s">
         <v>686</v>
       </c>
-      <c r="J2" s="150" t="s">
+      <c r="J2" s="144" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="151">
+      <c r="A3" s="145">
         <v>1</v>
       </c>
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="145" t="s">
         <v>688</v>
       </c>
-      <c r="C3" s="152">
+      <c r="C3" s="146">
         <v>79</v>
       </c>
-      <c r="D3" s="152">
+      <c r="D3" s="146">
         <v>58</v>
       </c>
-      <c r="E3" s="152">
+      <c r="E3" s="146">
         <v>52</v>
       </c>
-      <c r="F3" s="152">
+      <c r="F3" s="146">
         <v>78</v>
       </c>
-      <c r="G3" s="152">
+      <c r="G3" s="146">
         <v>73</v>
       </c>
-      <c r="H3" s="152">
+      <c r="H3" s="146">
         <v>74</v>
       </c>
-      <c r="I3" s="152">
+      <c r="I3" s="146">
         <v>75</v>
       </c>
-      <c r="J3" s="153"/>
+      <c r="J3" s="147"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="151">
+      <c r="A4" s="145">
         <v>2</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="145" t="s">
         <v>689</v>
       </c>
-      <c r="C4" s="152">
+      <c r="C4" s="146">
         <v>62</v>
       </c>
-      <c r="D4" s="152">
+      <c r="D4" s="146">
         <v>65</v>
       </c>
-      <c r="E4" s="152">
+      <c r="E4" s="146">
         <v>61</v>
       </c>
-      <c r="F4" s="152">
+      <c r="F4" s="146">
         <v>75</v>
       </c>
-      <c r="G4" s="152">
+      <c r="G4" s="146">
         <v>69</v>
       </c>
-      <c r="H4" s="152">
+      <c r="H4" s="146">
         <v>40</v>
       </c>
-      <c r="I4" s="152">
+      <c r="I4" s="146">
         <v>73</v>
       </c>
-      <c r="J4" s="153" t="str">
+      <c r="J4" s="147" t="str">
         <f>IF(COUNTIF(C4:I4,"&lt;60")&gt;1,"补考",IF(COUNTIF(C4:I4,"&lt;40"),IF(COUNTIF(C4:I4,"&gt;70")&lt;4,"补考",""),""))</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="151">
+      <c r="A5" s="145">
         <v>3</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="145" t="s">
         <v>690</v>
       </c>
-      <c r="C5" s="152">
+      <c r="C5" s="146">
         <v>80</v>
       </c>
-      <c r="D5" s="152">
+      <c r="D5" s="146">
         <v>68</v>
       </c>
-      <c r="E5" s="152">
+      <c r="E5" s="146">
         <v>39</v>
       </c>
-      <c r="F5" s="152">
+      <c r="F5" s="146">
         <v>62</v>
       </c>
-      <c r="G5" s="152">
+      <c r="G5" s="146">
         <v>69</v>
       </c>
-      <c r="H5" s="152">
+      <c r="H5" s="146">
         <v>81</v>
       </c>
-      <c r="I5" s="152">
+      <c r="I5" s="146">
         <v>70</v>
       </c>
-      <c r="J5" s="153"/>
+      <c r="J5" s="147"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="151">
+      <c r="A6" s="145">
         <v>4</v>
       </c>
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="145" t="s">
         <v>691</v>
       </c>
-      <c r="C6" s="152">
+      <c r="C6" s="146">
         <v>73</v>
       </c>
-      <c r="D6" s="152">
+      <c r="D6" s="146">
         <v>62</v>
       </c>
-      <c r="E6" s="152">
+      <c r="E6" s="146">
         <v>86</v>
       </c>
-      <c r="F6" s="152">
+      <c r="F6" s="146">
         <v>90</v>
       </c>
-      <c r="G6" s="152">
+      <c r="G6" s="146">
         <v>76</v>
       </c>
-      <c r="H6" s="152">
+      <c r="H6" s="146">
         <v>62</v>
       </c>
-      <c r="I6" s="152">
+      <c r="I6" s="146">
         <v>72</v>
       </c>
-      <c r="J6" s="153" t="str">
+      <c r="J6" s="147" t="str">
         <f>IF(COUNTIF(C6:I6,"&lt;60")&gt;1,"补考",IF(COUNTIF(C6:I6,"&lt;40"),IF(COUNTIF(C6:I6,"&gt;70")&lt;4,"补考",""),""))</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="151">
+      <c r="A7" s="145">
         <v>5</v>
       </c>
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="145" t="s">
         <v>692</v>
       </c>
-      <c r="C7" s="152">
+      <c r="C7" s="146">
         <v>87</v>
       </c>
-      <c r="D7" s="152">
+      <c r="D7" s="146">
         <v>71</v>
       </c>
-      <c r="E7" s="152">
+      <c r="E7" s="146">
         <v>73</v>
       </c>
-      <c r="F7" s="152">
+      <c r="F7" s="146">
         <v>60</v>
       </c>
-      <c r="G7" s="152">
+      <c r="G7" s="146">
         <v>61</v>
       </c>
-      <c r="H7" s="152">
+      <c r="H7" s="146">
         <v>39</v>
       </c>
-      <c r="I7" s="152">
+      <c r="I7" s="146">
         <v>72</v>
       </c>
-      <c r="J7" s="153" t="str">
+      <c r="J7" s="147" t="str">
         <f>IF(COUNTIF(C7:I7,"&lt;60")&gt;1,"补考",IF(COUNTIF(C7:I7,"&lt;40"),IF(COUNTIF(C7:I7,"&gt;70")&lt;4,"补考",""),""))</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="142" t="s">
         <v>693</v>
       </c>
-      <c r="B8" s="154" t="s">
+      <c r="B8" s="148" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="149" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="149" t="s">
         <v>696</v>
       </c>
     </row>
@@ -24253,7 +24491,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+  <sheetPr codeName="Sheet24">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:L10"/>
@@ -24265,268 +24503,268 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:12" ht="14.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="142" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="143" t="s">
         <v>698</v>
       </c>
-      <c r="B2" s="149" t="s">
+      <c r="B2" s="143" t="s">
         <v>699</v>
       </c>
-      <c r="C2" s="149" t="s">
+      <c r="C2" s="143" t="s">
         <v>700</v>
       </c>
-      <c r="D2" s="149" t="s">
+      <c r="D2" s="143" t="s">
         <v>701</v>
       </c>
-      <c r="E2" s="149" t="s">
+      <c r="E2" s="143" t="s">
         <v>702</v>
       </c>
-      <c r="F2" s="149" t="s">
+      <c r="F2" s="143" t="s">
         <v>703</v>
       </c>
-      <c r="G2" s="149" t="s">
+      <c r="G2" s="143" t="s">
         <v>704</v>
       </c>
-      <c r="H2" s="149" t="s">
+      <c r="H2" s="143" t="s">
         <v>705</v>
       </c>
-      <c r="I2" s="149" t="s">
+      <c r="I2" s="143" t="s">
         <v>706</v>
       </c>
-      <c r="J2" s="150" t="s">
+      <c r="J2" s="144" t="s">
         <v>707</v>
       </c>
-      <c r="K2" s="156" t="s">
+      <c r="K2" s="150" t="s">
         <v>708</v>
       </c>
-      <c r="L2" s="157" t="s">
+      <c r="L2" s="151" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" s="151">
+      <c r="A3" s="145">
         <v>1</v>
       </c>
-      <c r="B3" s="151" t="s">
+      <c r="B3" s="145" t="s">
         <v>710</v>
       </c>
-      <c r="C3" s="152">
+      <c r="C3" s="146">
         <v>79</v>
       </c>
-      <c r="D3" s="152">
+      <c r="D3" s="146">
         <v>58</v>
       </c>
-      <c r="E3" s="152">
+      <c r="E3" s="146">
         <v>52</v>
       </c>
-      <c r="F3" s="152">
+      <c r="F3" s="146">
         <v>78</v>
       </c>
-      <c r="G3" s="152">
+      <c r="G3" s="146">
         <v>73</v>
       </c>
-      <c r="H3" s="152">
+      <c r="H3" s="146">
         <v>74</v>
       </c>
-      <c r="I3" s="152">
+      <c r="I3" s="146">
         <v>75</v>
       </c>
-      <c r="J3" s="158" t="str">
+      <c r="J3" s="152" t="str">
         <f>IF((COUNTIF(C3:I3,"&lt;60")&gt;1)+COUNTIF(C3:I3,"&lt;40")*(COUNTIF(C3:I3,"&gt;70")&lt;4),"补考","")</f>
         <v>补考</v>
       </c>
-      <c r="K3" s="159" t="str">
+      <c r="K3" s="153" t="str">
         <f>IF(OR(COUNTIF(C3:I3,"&lt;60")&gt;1,AND(COUNTIF(C3:I3,"&lt;40"),COUNTIF(C3:I3,"&gt;70")&lt;4)),"补考","")</f>
         <v>补考</v>
       </c>
-      <c r="L3" s="160" t="str">
+      <c r="L3" s="154" t="str">
         <f t="array" ref="L3">IF(COUNTIF(C3:I3,"&lt;60")&gt;1,"补考",IF(COUNTIF(C3:I3,"&lt;40"),IF(COUNTIF(C3:I3,"&gt;70")&lt;4,"补考",""),""))</f>
         <v>补考</v>
       </c>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="151">
+      <c r="A4" s="145">
         <v>2</v>
       </c>
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="145" t="s">
         <v>711</v>
       </c>
-      <c r="C4" s="152">
+      <c r="C4" s="146">
         <v>62</v>
       </c>
-      <c r="D4" s="152">
+      <c r="D4" s="146">
         <v>65</v>
       </c>
-      <c r="E4" s="152">
+      <c r="E4" s="146">
         <v>61</v>
       </c>
-      <c r="F4" s="152">
+      <c r="F4" s="146">
         <v>75</v>
       </c>
-      <c r="G4" s="152">
+      <c r="G4" s="146">
         <v>69</v>
       </c>
-      <c r="H4" s="152">
+      <c r="H4" s="146">
         <v>40</v>
       </c>
-      <c r="I4" s="152">
+      <c r="I4" s="146">
         <v>73</v>
       </c>
-      <c r="J4" s="158" t="str">
+      <c r="J4" s="152" t="str">
         <f>IF((COUNTIF(C4:I4,"&lt;60")&gt;1)+COUNTIF(C4:I4,"&lt;40")*(COUNTIF(C4:I4,"&gt;70")&lt;4),"补考","")</f>
         <v/>
       </c>
-      <c r="K4" s="159" t="str">
+      <c r="K4" s="153" t="str">
         <f>IF(OR(COUNTIF(C4:I4,"&lt;60")&gt;1,AND(COUNTIF(C4:I4,"&lt;40"),COUNTIF(C4:I4,"&gt;70")&lt;4)),"补考","")</f>
         <v/>
       </c>
-      <c r="L4" s="160" t="str">
+      <c r="L4" s="154" t="str">
         <f t="array" ref="L4">IF(COUNTIF(C4:I4,"&lt;60")&gt;1,"补考",IF(COUNTIF(C4:I4,"&lt;40"),IF(COUNTIF(C4:I4,"&gt;70")&lt;4,"补考",""),""))</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:12">
-      <c r="A5" s="151">
+      <c r="A5" s="145">
         <v>3</v>
       </c>
-      <c r="B5" s="151" t="s">
+      <c r="B5" s="145" t="s">
         <v>712</v>
       </c>
-      <c r="C5" s="152">
+      <c r="C5" s="146">
         <v>80</v>
       </c>
-      <c r="D5" s="152">
+      <c r="D5" s="146">
         <v>68</v>
       </c>
-      <c r="E5" s="152">
+      <c r="E5" s="146">
         <v>39</v>
       </c>
-      <c r="F5" s="152">
+      <c r="F5" s="146">
         <v>62</v>
       </c>
-      <c r="G5" s="152">
+      <c r="G5" s="146">
         <v>69</v>
       </c>
-      <c r="H5" s="152">
+      <c r="H5" s="146">
         <v>81</v>
       </c>
-      <c r="I5" s="152">
+      <c r="I5" s="146">
         <v>70</v>
       </c>
-      <c r="J5" s="158" t="str">
+      <c r="J5" s="152" t="str">
         <f>IF((COUNTIF(C5:I5,"&lt;60")&gt;1)+COUNTIF(C5:I5,"&lt;40")*(COUNTIF(C5:I5,"&gt;70")&lt;4),"补考","")</f>
         <v>补考</v>
       </c>
-      <c r="K5" s="159" t="str">
+      <c r="K5" s="153" t="str">
         <f>IF(OR(COUNTIF(C5:I5,"&lt;60")&gt;1,AND(COUNTIF(C5:I5,"&lt;40"),COUNTIF(C5:I5,"&gt;70")&lt;4)),"补考","")</f>
         <v>补考</v>
       </c>
-      <c r="L5" s="160" t="str">
+      <c r="L5" s="154" t="str">
         <f t="array" ref="L5">IF(COUNTIF(C5:I5,"&lt;60")&gt;1,"补考",IF(COUNTIF(C5:I5,"&lt;40"),IF(COUNTIF(C5:I5,"&gt;70")&lt;4,"补考",""),""))</f>
         <v>补考</v>
       </c>
     </row>
     <row r="6" spans="1:12">
-      <c r="A6" s="151">
+      <c r="A6" s="145">
         <v>4</v>
       </c>
-      <c r="B6" s="151" t="s">
+      <c r="B6" s="145" t="s">
         <v>713</v>
       </c>
-      <c r="C6" s="152">
+      <c r="C6" s="146">
         <v>73</v>
       </c>
-      <c r="D6" s="152">
+      <c r="D6" s="146">
         <v>62</v>
       </c>
-      <c r="E6" s="152">
+      <c r="E6" s="146">
         <v>86</v>
       </c>
-      <c r="F6" s="152">
+      <c r="F6" s="146">
         <v>90</v>
       </c>
-      <c r="G6" s="152">
+      <c r="G6" s="146">
         <v>76</v>
       </c>
-      <c r="H6" s="152">
+      <c r="H6" s="146">
         <v>62</v>
       </c>
-      <c r="I6" s="152">
+      <c r="I6" s="146">
         <v>72</v>
       </c>
-      <c r="J6" s="158" t="str">
+      <c r="J6" s="152" t="str">
         <f>IF((COUNTIF(C6:I6,"&lt;60")&gt;1)+COUNTIF(C6:I6,"&lt;40")*(COUNTIF(C6:I6,"&gt;70")&lt;4),"补考","")</f>
         <v/>
       </c>
-      <c r="K6" s="159" t="str">
+      <c r="K6" s="153" t="str">
         <f>IF(OR(COUNTIF(C6:I6,"&lt;60")&gt;1,AND(COUNTIF(C6:I6,"&lt;40"),COUNTIF(C6:I6,"&gt;70")&lt;4)),"补考","")</f>
         <v/>
       </c>
-      <c r="L6" s="160" t="str">
+      <c r="L6" s="154" t="str">
         <f t="array" ref="L6">IF(COUNTIF(C6:I6,"&lt;60")&gt;1,"补考",IF(COUNTIF(C6:I6,"&lt;40"),IF(COUNTIF(C6:I6,"&gt;70")&lt;4,"补考",""),""))</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="A7" s="151">
+      <c r="A7" s="145">
         <v>5</v>
       </c>
-      <c r="B7" s="151" t="s">
+      <c r="B7" s="145" t="s">
         <v>714</v>
       </c>
-      <c r="C7" s="152">
+      <c r="C7" s="146">
         <v>87</v>
       </c>
-      <c r="D7" s="152">
+      <c r="D7" s="146">
         <v>71</v>
       </c>
-      <c r="E7" s="152">
+      <c r="E7" s="146">
         <v>73</v>
       </c>
-      <c r="F7" s="152">
+      <c r="F7" s="146">
         <v>60</v>
       </c>
-      <c r="G7" s="152">
+      <c r="G7" s="146">
         <v>61</v>
       </c>
-      <c r="H7" s="152">
+      <c r="H7" s="146">
         <v>39</v>
       </c>
-      <c r="I7" s="152">
+      <c r="I7" s="146">
         <v>72</v>
       </c>
-      <c r="J7" s="158" t="str">
+      <c r="J7" s="152" t="str">
         <f>IF((COUNTIF(C7:I7,"&lt;60")&gt;1)+COUNTIF(C7:I7,"&lt;40")*(COUNTIF(C7:I7,"&gt;70")&lt;4),"补考","")</f>
         <v/>
       </c>
-      <c r="K7" s="159" t="str">
+      <c r="K7" s="153" t="str">
         <f>IF(OR(COUNTIF(C7:I7,"&lt;60")&gt;1,AND(COUNTIF(C7:I7,"&lt;40"),COUNTIF(C7:I7,"&gt;70")&lt;4)),"补考","")</f>
         <v/>
       </c>
-      <c r="L7" s="160" t="str">
+      <c r="L7" s="154" t="str">
         <f t="array" ref="L7">IF(COUNTIF(C7:I7,"&lt;60")&gt;1,"补考",IF(COUNTIF(C7:I7,"&lt;40"),IF(COUNTIF(C7:I7,"&gt;70")&lt;4,"补考",""),""))</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:12" ht="14.25">
-      <c r="A8" s="148" t="s">
+      <c r="A8" s="142" t="s">
         <v>693</v>
       </c>
-      <c r="B8" s="154" t="s">
+      <c r="B8" s="148" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="B9" s="155" t="s">
+      <c r="B9" s="149" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="10" spans="1:12">
-      <c r="B10" s="155" t="s">
+      <c r="B10" s="149" t="s">
         <v>696</v>
       </c>
     </row>
@@ -24551,6 +24789,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet25"/>
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -24558,7 +24797,7 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="142" t="s">
         <v>715</v>
       </c>
     </row>
@@ -24612,7 +24851,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+  <sheetPr codeName="Sheet26">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C10"/>
@@ -24624,7 +24863,7 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="142" t="s">
         <v>715</v>
       </c>
     </row>
@@ -24651,7 +24890,7 @@
         <v>9876545</v>
       </c>
       <c r="C4" s="119" t="str">
-        <f t="shared" ref="C4:C10" si="0">IF(COUNTIF($A$2:$A$9,$A4)=1,A4,"")</f>
+        <f t="shared" ref="C4:C9" si="0">IF(COUNTIF($A$2:$A$9,$A4)=1,A4,"")</f>
         <v/>
       </c>
     </row>
@@ -24711,6 +24950,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet27"/>
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -24720,29 +24960,29 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:5" ht="14.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="142" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="155" t="s">
         <v>716</v>
       </c>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="155" t="s">
         <v>717</v>
       </c>
-      <c r="C2" s="161" t="s">
+      <c r="C2" s="155" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="156" t="s">
         <v>719</v>
       </c>
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="156" t="s">
         <v>720</v>
       </c>
-      <c r="C3" s="162">
+      <c r="C3" s="156">
         <v>194</v>
       </c>
       <c r="E3" t="s">
@@ -24750,90 +24990,90 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="156" t="s">
         <v>722</v>
       </c>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="156" t="s">
         <v>723</v>
       </c>
-      <c r="C4" s="162">
+      <c r="C4" s="156">
         <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="156" t="s">
         <v>724</v>
       </c>
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="156" t="s">
         <v>723</v>
       </c>
-      <c r="C5" s="162">
+      <c r="C5" s="156">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="162" t="s">
+      <c r="A6" s="156" t="s">
         <v>722</v>
       </c>
-      <c r="B6" s="162" t="s">
+      <c r="B6" s="156" t="s">
         <v>725</v>
       </c>
-      <c r="C6" s="162">
+      <c r="C6" s="156">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="156" t="s">
         <v>726</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="156" t="s">
         <v>725</v>
       </c>
-      <c r="C7" s="162">
+      <c r="C7" s="156">
         <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="156" t="s">
         <v>724</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="156" t="s">
         <v>727</v>
       </c>
-      <c r="C8" s="162">
+      <c r="C8" s="156">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="162" t="s">
+      <c r="A9" s="156" t="s">
         <v>728</v>
       </c>
-      <c r="B9" s="162" t="s">
+      <c r="B9" s="156" t="s">
         <v>727</v>
       </c>
-      <c r="C9" s="162">
+      <c r="C9" s="156">
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="156" t="s">
         <v>719</v>
       </c>
-      <c r="B10" s="162" t="s">
+      <c r="B10" s="156" t="s">
         <v>727</v>
       </c>
-      <c r="C10" s="162">
+      <c r="C10" s="156">
         <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="162" t="s">
+      <c r="A11" s="156" t="s">
         <v>724</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="156" t="s">
         <v>725</v>
       </c>
-      <c r="C11" s="162">
+      <c r="C11" s="156">
         <v>121</v>
       </c>
     </row>
@@ -24845,7 +25085,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+  <sheetPr codeName="Sheet28">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:F11"/>
@@ -24857,35 +25097,35 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25">
-      <c r="A1" s="148" t="s">
+      <c r="A1" s="142" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="155" t="s">
         <v>716</v>
       </c>
-      <c r="B2" s="161" t="s">
+      <c r="B2" s="155" t="s">
         <v>717</v>
       </c>
-      <c r="C2" s="161" t="s">
+      <c r="C2" s="155" t="s">
         <v>718</v>
       </c>
-      <c r="D2" s="163" t="s">
+      <c r="D2" s="157" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="156" t="s">
         <v>719</v>
       </c>
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="156" t="s">
         <v>720</v>
       </c>
-      <c r="C3" s="162">
+      <c r="C3" s="156">
         <v>194</v>
       </c>
-      <c r="D3" s="164" t="str">
+      <c r="D3" s="158" t="str">
         <f>A3&amp;B3</f>
         <v>A001铅笔</v>
       </c>
@@ -24898,121 +25138,121 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="156" t="s">
         <v>722</v>
       </c>
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="156" t="s">
         <v>723</v>
       </c>
-      <c r="C4" s="162">
+      <c r="C4" s="156">
         <v>40</v>
       </c>
-      <c r="D4" s="164" t="str">
+      <c r="D4" s="158" t="str">
         <f t="shared" ref="D4:D11" si="0">A4&amp;B4</f>
         <v>B001毛笔</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="156" t="s">
         <v>724</v>
       </c>
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="156" t="s">
         <v>723</v>
       </c>
-      <c r="C5" s="162">
+      <c r="C5" s="156">
         <v>100</v>
       </c>
-      <c r="D5" s="164" t="str">
+      <c r="D5" s="158" t="str">
         <f t="shared" si="0"/>
         <v>A002毛笔</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="162" t="s">
+      <c r="A6" s="156" t="s">
         <v>722</v>
       </c>
-      <c r="B6" s="162" t="s">
+      <c r="B6" s="156" t="s">
         <v>725</v>
       </c>
-      <c r="C6" s="162">
+      <c r="C6" s="156">
         <v>130</v>
       </c>
-      <c r="D6" s="164" t="str">
+      <c r="D6" s="158" t="str">
         <f t="shared" si="0"/>
         <v>B001圆珠笔</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="156" t="s">
         <v>726</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="156" t="s">
         <v>725</v>
       </c>
-      <c r="C7" s="162">
+      <c r="C7" s="156">
         <v>110</v>
       </c>
-      <c r="D7" s="164" t="str">
+      <c r="D7" s="158" t="str">
         <f t="shared" si="0"/>
         <v>B002圆珠笔</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="156" t="s">
         <v>724</v>
       </c>
-      <c r="B8" s="162" t="s">
+      <c r="B8" s="156" t="s">
         <v>727</v>
       </c>
-      <c r="C8" s="162">
+      <c r="C8" s="156">
         <v>74</v>
       </c>
-      <c r="D8" s="164" t="str">
+      <c r="D8" s="158" t="str">
         <f t="shared" si="0"/>
         <v>A002钢笔</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="162" t="s">
+      <c r="A9" s="156" t="s">
         <v>728</v>
       </c>
-      <c r="B9" s="162" t="s">
+      <c r="B9" s="156" t="s">
         <v>727</v>
       </c>
-      <c r="C9" s="162">
+      <c r="C9" s="156">
         <v>100</v>
       </c>
-      <c r="D9" s="164" t="str">
+      <c r="D9" s="158" t="str">
         <f t="shared" si="0"/>
         <v>A003钢笔</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="156" t="s">
         <v>719</v>
       </c>
-      <c r="B10" s="162" t="s">
+      <c r="B10" s="156" t="s">
         <v>727</v>
       </c>
-      <c r="C10" s="162">
+      <c r="C10" s="156">
         <v>143</v>
       </c>
-      <c r="D10" s="164" t="str">
+      <c r="D10" s="158" t="str">
         <f t="shared" si="0"/>
         <v>A001钢笔</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="162" t="s">
+      <c r="A11" s="156" t="s">
         <v>724</v>
       </c>
-      <c r="B11" s="162" t="s">
+      <c r="B11" s="156" t="s">
         <v>725</v>
       </c>
-      <c r="C11" s="162">
+      <c r="C11" s="156">
         <v>121</v>
       </c>
-      <c r="D11" s="164" t="str">
+      <c r="D11" s="158" t="str">
         <f t="shared" si="0"/>
         <v>A002圆珠笔</v>
       </c>
@@ -25025,6 +25265,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet29"/>
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -25039,101 +25280,101 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="159" t="s">
         <v>731</v>
       </c>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="159" t="s">
         <v>732</v>
       </c>
-      <c r="C2" s="165" t="s">
+      <c r="C2" s="159" t="s">
         <v>733</v>
       </c>
-      <c r="D2" s="166" t="s">
+      <c r="D2" s="160" t="s">
         <v>731</v>
       </c>
-      <c r="E2" s="166" t="s">
+      <c r="E2" s="160" t="s">
         <v>732</v>
       </c>
-      <c r="F2" s="166" t="s">
+      <c r="F2" s="160" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25">
-      <c r="A3" s="167" t="s">
+      <c r="A3" s="161" t="s">
         <v>734</v>
       </c>
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="161" t="s">
         <v>735</v>
       </c>
-      <c r="C3" s="167">
+      <c r="C3" s="161">
         <v>100</v>
       </c>
-      <c r="D3" s="167" t="s">
+      <c r="D3" s="161" t="s">
         <v>736</v>
       </c>
-      <c r="E3" s="167" t="s">
+      <c r="E3" s="161" t="s">
         <v>737</v>
       </c>
-      <c r="F3" s="169" t="s">
+      <c r="F3" s="163" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25">
-      <c r="A4" s="167" t="s">
+      <c r="A4" s="161" t="s">
         <v>734</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="161" t="s">
         <v>738</v>
       </c>
-      <c r="C4" s="167">
+      <c r="C4" s="161">
         <v>200</v>
       </c>
-      <c r="D4" s="168"/>
-      <c r="E4" s="168"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="162"/>
     </row>
     <row r="5" spans="1:6" ht="14.25">
-      <c r="A5" s="167" t="s">
+      <c r="A5" s="161" t="s">
         <v>739</v>
       </c>
-      <c r="B5" s="167" t="s">
+      <c r="B5" s="161" t="s">
         <v>740</v>
       </c>
-      <c r="C5" s="167">
+      <c r="C5" s="161">
         <v>300</v>
       </c>
-      <c r="D5" s="168"/>
-      <c r="E5" s="168"/>
+      <c r="D5" s="162"/>
+      <c r="E5" s="162"/>
     </row>
     <row r="6" spans="1:6" ht="14.25">
-      <c r="A6" s="167" t="s">
+      <c r="A6" s="161" t="s">
         <v>736</v>
       </c>
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="161" t="s">
         <v>738</v>
       </c>
-      <c r="C6" s="167">
+      <c r="C6" s="161">
         <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25">
-      <c r="A7" s="167" t="s">
+      <c r="A7" s="161" t="s">
         <v>734</v>
       </c>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="161" t="s">
         <v>741</v>
       </c>
-      <c r="C7" s="167">
+      <c r="C7" s="161">
         <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.25">
-      <c r="A8" s="167" t="s">
+      <c r="A8" s="161" t="s">
         <v>736</v>
       </c>
-      <c r="B8" s="167" t="s">
+      <c r="B8" s="161" t="s">
         <v>742</v>
       </c>
-      <c r="C8" s="167">
+      <c r="C8" s="161">
         <v>600</v>
       </c>
     </row>
@@ -25411,7 +25652,7 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+  <sheetPr codeName="Sheet30">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:G8"/>
@@ -25431,129 +25672,129 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25">
-      <c r="A2" s="165" t="s">
+      <c r="A2" s="159" t="s">
         <v>730</v>
       </c>
-      <c r="B2" s="165" t="s">
+      <c r="B2" s="159" t="s">
         <v>731</v>
       </c>
-      <c r="C2" s="165" t="s">
+      <c r="C2" s="159" t="s">
         <v>732</v>
       </c>
-      <c r="D2" s="165" t="s">
+      <c r="D2" s="159" t="s">
         <v>733</v>
       </c>
-      <c r="E2" s="166" t="s">
+      <c r="E2" s="160" t="s">
         <v>731</v>
       </c>
-      <c r="F2" s="166" t="s">
+      <c r="F2" s="160" t="s">
         <v>732</v>
       </c>
-      <c r="G2" s="166" t="s">
+      <c r="G2" s="160" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25">
-      <c r="A3" s="167" t="str">
+      <c r="A3" s="161" t="str">
         <f>B3&amp;C3</f>
         <v>张三丰商场A</v>
       </c>
-      <c r="B3" s="167" t="s">
+      <c r="B3" s="161" t="s">
         <v>734</v>
       </c>
-      <c r="C3" s="167" t="s">
+      <c r="C3" s="161" t="s">
         <v>735</v>
       </c>
-      <c r="D3" s="167">
+      <c r="D3" s="161">
         <v>100</v>
       </c>
-      <c r="E3" s="167" t="s">
+      <c r="E3" s="161" t="s">
         <v>736</v>
       </c>
-      <c r="F3" s="167" t="s">
+      <c r="F3" s="161" t="s">
         <v>737</v>
       </c>
-      <c r="G3" s="169">
+      <c r="G3" s="163">
         <f>VLOOKUP(E3&amp;F3,A3:D8,4,0)</f>
         <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25">
-      <c r="A4" s="167" t="str">
+      <c r="A4" s="161" t="str">
         <f t="shared" ref="A4:A8" si="0">B4&amp;C4</f>
         <v>张三丰超市B</v>
       </c>
-      <c r="B4" s="167" t="s">
+      <c r="B4" s="161" t="s">
         <v>734</v>
       </c>
-      <c r="C4" s="167" t="s">
+      <c r="C4" s="161" t="s">
         <v>738</v>
       </c>
-      <c r="D4" s="167">
+      <c r="D4" s="161">
         <v>200</v>
       </c>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
+      <c r="E4" s="162"/>
+      <c r="F4" s="162"/>
     </row>
     <row r="5" spans="1:7" ht="14.25">
-      <c r="A5" s="167" t="str">
+      <c r="A5" s="161" t="str">
         <f t="shared" si="0"/>
         <v>李五光商场</v>
       </c>
-      <c r="B5" s="167" t="s">
+      <c r="B5" s="161" t="s">
         <v>739</v>
       </c>
-      <c r="C5" s="167" t="s">
+      <c r="C5" s="161" t="s">
         <v>740</v>
       </c>
-      <c r="D5" s="167">
+      <c r="D5" s="161">
         <v>300</v>
       </c>
-      <c r="E5" s="168"/>
-      <c r="F5" s="168"/>
+      <c r="E5" s="162"/>
+      <c r="F5" s="162"/>
     </row>
     <row r="6" spans="1:7" ht="14.25">
-      <c r="A6" s="167" t="str">
+      <c r="A6" s="161" t="str">
         <f t="shared" si="0"/>
         <v>李五光超市B</v>
       </c>
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="161" t="s">
         <v>736</v>
       </c>
-      <c r="C6" s="167" t="s">
+      <c r="C6" s="161" t="s">
         <v>738</v>
       </c>
-      <c r="D6" s="167">
+      <c r="D6" s="161">
         <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.25">
-      <c r="A7" s="167" t="str">
+      <c r="A7" s="161" t="str">
         <f t="shared" si="0"/>
         <v>张三丰店铺C</v>
       </c>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="161" t="s">
         <v>734</v>
       </c>
-      <c r="C7" s="167" t="s">
+      <c r="C7" s="161" t="s">
         <v>741</v>
       </c>
-      <c r="D7" s="167">
+      <c r="D7" s="161">
         <v>500</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.25">
-      <c r="A8" s="167" t="str">
+      <c r="A8" s="161" t="str">
         <f t="shared" si="0"/>
         <v>李五光商场</v>
       </c>
-      <c r="B8" s="167" t="s">
+      <c r="B8" s="161" t="s">
         <v>736</v>
       </c>
-      <c r="C8" s="167" t="s">
+      <c r="C8" s="161" t="s">
         <v>742</v>
       </c>
-      <c r="D8" s="167">
+      <c r="D8" s="161">
         <v>600</v>
       </c>
     </row>
@@ -25565,9 +25806,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet31"/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B17"/>
     </sheetView>
   </sheetViews>
@@ -25578,135 +25820,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="14.25">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="166" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="170" t="s">
+      <c r="A2" s="164" t="s">
         <v>746</v>
       </c>
-      <c r="B2" s="170" t="s">
+      <c r="B2" s="164" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="165" t="s">
         <v>748</v>
       </c>
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="165" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="165" t="s">
         <v>750</v>
       </c>
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="165" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="171" t="s">
+      <c r="A5" s="165" t="s">
         <v>750</v>
       </c>
-      <c r="B5" s="171" t="s">
+      <c r="B5" s="165" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="171" t="s">
+      <c r="A6" s="165" t="s">
         <v>753</v>
       </c>
-      <c r="B6" s="171" t="s">
+      <c r="B6" s="165" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="171" t="s">
+      <c r="A7" s="165" t="s">
         <v>755</v>
       </c>
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="165" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="171" t="s">
+      <c r="A8" s="165" t="s">
         <v>757</v>
       </c>
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="165" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="171" t="s">
+      <c r="A9" s="165" t="s">
         <v>759</v>
       </c>
-      <c r="B9" s="171" t="s">
+      <c r="B9" s="165" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="171" t="s">
+      <c r="A10" s="165" t="s">
         <v>761</v>
       </c>
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="165" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="171" t="s">
+      <c r="A11" s="165" t="s">
         <v>763</v>
       </c>
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="165" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="165" t="s">
         <v>765</v>
       </c>
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="165" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="171" t="s">
+      <c r="A13" s="165" t="s">
         <v>767</v>
       </c>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="165" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="171" t="s">
+      <c r="A14" s="165" t="s">
         <v>769</v>
       </c>
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="165" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="171" t="s">
+      <c r="A15" s="165" t="s">
         <v>771</v>
       </c>
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="165" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="171" t="s">
+      <c r="A16" s="165" t="s">
         <v>773</v>
       </c>
-      <c r="B16" s="171" t="s">
+      <c r="B16" s="165" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="171" t="s">
+      <c r="A17" s="165" t="s">
         <v>775</v>
       </c>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="165" t="s">
         <v>776</v>
       </c>
     </row>
@@ -25718,7 +25960,7 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+  <sheetPr codeName="Sheet32">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:C17"/>
@@ -25734,198 +25976,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="166" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="173" t="s">
+      <c r="A2" s="167" t="s">
         <v>779</v>
       </c>
-      <c r="B2" s="173" t="s">
+      <c r="B2" s="167" t="s">
         <v>780</v>
       </c>
-      <c r="C2" s="174" t="s">
+      <c r="C2" s="168" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="171" t="s">
+      <c r="A3" s="165" t="s">
         <v>750</v>
       </c>
-      <c r="B3" s="171" t="s">
+      <c r="B3" s="165" t="s">
         <v>751</v>
       </c>
       <c r="C3">
-        <f>LEN(B3)</f>
+        <f t="shared" ref="C3:C17" si="0">LEN(B3)</f>
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="165" t="s">
         <v>763</v>
       </c>
-      <c r="B4" s="171" t="s">
+      <c r="B4" s="165" t="s">
         <v>764</v>
       </c>
       <c r="C4">
-        <f>LEN(B4)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="171" t="s">
+      <c r="A5" s="165" t="s">
         <v>755</v>
       </c>
-      <c r="B5" s="171" t="s">
+      <c r="B5" s="165" t="s">
         <v>756</v>
       </c>
       <c r="C5">
-        <f>LEN(B5)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="171" t="s">
+      <c r="A6" s="165" t="s">
         <v>771</v>
       </c>
-      <c r="B6" s="171" t="s">
+      <c r="B6" s="165" t="s">
         <v>772</v>
       </c>
       <c r="C6">
-        <f>LEN(B6)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="171" t="s">
+      <c r="A7" s="165" t="s">
         <v>775</v>
       </c>
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="165" t="s">
         <v>776</v>
       </c>
       <c r="C7">
-        <f>LEN(B7)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="171" t="s">
+      <c r="A8" s="165" t="s">
         <v>759</v>
       </c>
-      <c r="B8" s="171" t="s">
+      <c r="B8" s="165" t="s">
         <v>760</v>
       </c>
       <c r="C8">
-        <f>LEN(B8)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="171" t="s">
+      <c r="A9" s="165" t="s">
         <v>773</v>
       </c>
-      <c r="B9" s="171" t="s">
+      <c r="B9" s="165" t="s">
         <v>774</v>
       </c>
       <c r="C9">
-        <f>LEN(B9)</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="171" t="s">
+      <c r="A10" s="165" t="s">
         <v>748</v>
       </c>
-      <c r="B10" s="171" t="s">
+      <c r="B10" s="165" t="s">
         <v>749</v>
       </c>
       <c r="C10">
-        <f>LEN(B10)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="171" t="s">
+      <c r="A11" s="165" t="s">
         <v>753</v>
       </c>
-      <c r="B11" s="171" t="s">
+      <c r="B11" s="165" t="s">
         <v>754</v>
       </c>
       <c r="C11">
-        <f>LEN(B11)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="171" t="s">
+      <c r="A12" s="165" t="s">
         <v>769</v>
       </c>
-      <c r="B12" s="171" t="s">
+      <c r="B12" s="165" t="s">
         <v>770</v>
       </c>
       <c r="C12">
-        <f>LEN(B12)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="171" t="s">
+      <c r="A13" s="165" t="s">
         <v>750</v>
       </c>
-      <c r="B13" s="171" t="s">
+      <c r="B13" s="165" t="s">
         <v>752</v>
       </c>
       <c r="C13">
-        <f>LEN(B13)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="171" t="s">
+      <c r="A14" s="165" t="s">
         <v>757</v>
       </c>
-      <c r="B14" s="171" t="s">
+      <c r="B14" s="165" t="s">
         <v>758</v>
       </c>
       <c r="C14">
-        <f>LEN(B14)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="171" t="s">
+      <c r="A15" s="165" t="s">
         <v>761</v>
       </c>
-      <c r="B15" s="171" t="s">
+      <c r="B15" s="165" t="s">
         <v>762</v>
       </c>
       <c r="C15">
-        <f>LEN(B15)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="171" t="s">
+      <c r="A16" s="165" t="s">
         <v>767</v>
       </c>
-      <c r="B16" s="171" t="s">
+      <c r="B16" s="165" t="s">
         <v>768</v>
       </c>
       <c r="C16">
-        <f>LEN(B16)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="171" t="s">
+      <c r="A17" s="165" t="s">
         <v>765</v>
       </c>
-      <c r="B17" s="171" t="s">
+      <c r="B17" s="165" t="s">
         <v>766</v>
       </c>
       <c r="C17">
-        <f>LEN(B17)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -25933,6 +26175,99 @@
   <sortState ref="A3:C17">
     <sortCondition ref="C2"/>
   </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet33"/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="14.25">
+      <c r="A1" s="176" t="s">
+        <v>791</v>
+      </c>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet34">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.25">
+      <c r="A1" s="176" t="s">
+        <v>792</v>
+      </c>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>781</v>
+      </c>
+      <c r="E5" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>782</v>
+      </c>
+      <c r="E6" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>783</v>
+      </c>
+      <c r="E7" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>784</v>
+      </c>
+      <c r="E8" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>785</v>
+      </c>
+      <c r="E9" t="s">
+        <v>790</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28518,6 +28853,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:L2026"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -36114,7 +36450,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr>
+  <sheetPr codeName="Sheet8">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:L2026"/>
@@ -43721,6 +44057,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
@@ -43740,15 +44077,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="158.25" customHeight="1">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="169" t="s">
         <v>372</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="143"/>
-      <c r="E1" s="143"/>
-      <c r="F1" s="143"/>
-      <c r="G1" s="143"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
+      <c r="E1" s="170"/>
+      <c r="F1" s="170"/>
+      <c r="G1" s="170"/>
     </row>
     <row r="2" spans="1:9" ht="13.5" thickBot="1"/>
     <row r="3" spans="1:9" s="77" customFormat="1">
